--- a/Experimental stimulus_실험용_수정본7.xlsx
+++ b/Experimental stimulus_실험용_수정본7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김민서\Desktop\eye-tracking 수정본 8-6\eye-tracking-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\eye-tracking 수정본 8-7\eye-tracking 수정본 8-7\eye-tracking-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB9569B-045F-428D-9AB4-E1B5EA2253F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FDCBB-55A9-4CB0-AB93-EF1BE8CFD241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10848" yWindow="168" windowWidth="12228" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="14595" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2202,12 +2205,12 @@
       <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2374,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2402,18 +2405,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" customWidth="1"/>
-    <col min="7" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2548,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3169,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3629,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4503,7 +4506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5101,7 +5104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5331,7 +5334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5469,7 +5472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5584,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5791,7 +5794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5837,7 +5840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5883,7 +5886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6090,7 +6093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6159,7 +6162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6182,7 +6185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6550,7 +6553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6573,7 +6576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -6688,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -6711,7 +6714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -6757,7 +6760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -6803,7 +6806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -6849,7 +6852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -6918,7 +6921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -6941,7 +6944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -6964,7 +6967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -6987,7 +6990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7125,7 +7128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7240,7 +7243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7263,7 +7266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7355,7 +7358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7470,7 +7473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>

--- a/Experimental stimulus_실험용_수정본7.xlsx
+++ b/Experimental stimulus_실험용_수정본7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\eye-tracking 수정본 8-7\eye-tracking 수정본 8-7\eye-tracking-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\eye-tracking 수정본 8-9\eye-tracking-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FDCBB-55A9-4CB0-AB93-EF1BE8CFD241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C484CBC-54DD-4231-850E-51A26C71E4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="14595" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice" sheetId="2" r:id="rId1"/>
@@ -1038,10 +1038,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나린은 따뜻한 물속에서 그림자의 잎을 잘랐다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유림은 오래된 벽에 걸려있는 소금을 떨었다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1843,6 +1839,10 @@
   </si>
   <si>
     <t>예림은 컴퓨터 화면을 마우스를 이용해 스크롤했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나린은 따뜻한 물속에서 그림자의 소리를 잘랐다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2405,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="B187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2430,10 +2430,10 @@
         <v>147</v>
       </c>
       <c r="F1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" t="s">
         <v>242</v>
-      </c>
-      <c r="G1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2533,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G44">
         <v>3</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G46">
         <v>3</v>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G50">
         <v>4</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G52">
         <v>4</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G57">
         <v>5</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G63">
         <v>5</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G80">
         <v>4</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G81">
         <v>4</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G83">
         <v>4</v>
@@ -4327,7 +4327,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G84">
         <v>4</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G86">
         <v>4</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G87">
         <v>5</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G89">
         <v>5</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G92">
         <v>5</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G94">
         <v>5</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G108">
         <v>3</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G110">
         <v>3</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G116">
         <v>4</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G119">
         <v>5</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G120">
         <v>5</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G121">
         <v>5</v>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G123">
         <v>5</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G124">
         <v>5</v>
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G125">
         <v>5</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -5523,7 +5523,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G136">
         <v>3</v>
@@ -5546,7 +5546,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G138">
         <v>3</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G142">
         <v>4</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G143">
         <v>4</v>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G144">
         <v>4</v>
@@ -5730,7 +5730,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G145">
         <v>4</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G146">
         <v>4</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G147">
         <v>4</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G149">
         <v>5</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G150">
         <v>5</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G151">
         <v>5</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G152">
         <v>5</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G154">
         <v>5</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G155">
         <v>5</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G173">
         <v>4</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G174">
         <v>4</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G175">
         <v>4</v>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G176">
         <v>4</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G177">
         <v>4</v>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G179">
         <v>4</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G180">
         <v>5</v>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G181">
         <v>5</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G182">
         <v>5</v>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G183">
         <v>5</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G184">
         <v>5</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G185">
         <v>5</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G186">
         <v>5</v>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G187">
         <v>5</v>
@@ -7202,7 +7202,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>18</v>
@@ -7478,7 +7478,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>18</v>
@@ -7524,7 +7524,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>18</v>
